--- a/Mạng-MT.xlsx
+++ b/Mạng-MT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,35 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="469">
   <si>
     <t>c)WAN</t>
   </si>
   <si>
-    <t>d)GAn</t>
-  </si>
-  <si>
     <t>a) 1969</t>
   </si>
   <si>
     <t>b) 1970</t>
   </si>
   <si>
-    <t>Câu 54: Khi gói tin bị mất hoặc bị lỗi thì tầng liên kết dữ liệu sẽ làm  gì?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Câu 55: Thông thường, tầng liên kết dữ liệu sử dụng kỹ thuật nào để điều khiển tốc độ gửi và  tốc độ nhận?</t>
-  </si>
-  <si>
-    <t>Câu 56: Định nghĩa địa chỉ IP được thực hiện tại tầng nào trong các tầng   sau?</t>
-  </si>
-  <si>
-    <t>Câu 57: Việc đánh số thứ tự cho các gói tin của tầng giao vận có ý nghĩa  gì?</t>
-  </si>
-  <si>
-    <t>Câu 57: Địa chỉ IP nào dưới đây nằm trong mạng có địa chỉ mạng là 192.168.100.0 và Subnet Mask là 255.255.255.0 ?</t>
-  </si>
-  <si>
     <t>a)  192.168.1.1</t>
   </si>
   <si>
@@ -58,75 +40,42 @@
     <t>d)  192.168.100.255</t>
   </si>
   <si>
-    <t>câu 58: Địa chỉ IP nào dưới đây nằm trong mạng có địa chỉ mạng là 10.16.0.0 và có Subnet Mask là 255.240.0.0 ?</t>
-  </si>
-  <si>
     <t>c)  11.18.100.2</t>
   </si>
   <si>
     <t>d)  10.48.100.55</t>
   </si>
   <si>
-    <t>câu 59: Địa chỉ IP nào dưới đây nằm trong mạng có địa chỉ mạng là 192.168.128.0 và Subnet Mask là 255.255.192.0 ?</t>
-  </si>
-  <si>
     <t>a)  192.168.200.1</t>
   </si>
   <si>
     <t>b)  192.167.10.10</t>
   </si>
   <si>
-    <t xml:space="preserve">câu 60: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp C? </t>
-  </si>
-  <si>
     <t>a)   129.219.145.255</t>
   </si>
   <si>
     <t>d)  190.12.253.255</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 61: Địa chỉ IP nào dưới đây thuộc lớp C có thể thiết lập cho máy tính? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu 62: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp A có thể thiết lập cho máy tính? </t>
-  </si>
-  <si>
     <t>a)   126.255.255.255</t>
   </si>
   <si>
     <t>b)  221.218.253.255</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 63: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp A? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu 64: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp B? </t>
-  </si>
-  <si>
     <t>c)  90.44.255.255</t>
   </si>
   <si>
     <t>d)  22.12.253.255</t>
   </si>
   <si>
-    <t>Câu 65: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp B có thể thiết lập cho máy tính?</t>
-  </si>
-  <si>
     <t>a)   140.12.255.255</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 66: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp D có thể thiết lập cho máy tính? </t>
-  </si>
-  <si>
     <t>a)  240.12.25.255</t>
   </si>
   <si>
-    <t>Câu 67: Số lượng bit nhiều nhất có thể mượn để chia subnets của địa chỉ IP lớp C là bao   nhiêu?</t>
-  </si>
-  <si>
-    <t>Câu 68: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.255.0, cặp máy tính nào sau đây liên thông với  nhau?</t>
-  </si>
-  <si>
     <t>a)   192.168.1.3   và  192.168.100.1</t>
   </si>
   <si>
@@ -136,9 +85,6 @@
     <t>d)   172.25.11.1  và  172.26.11.2</t>
   </si>
   <si>
-    <t>Câu 69: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.255.252, cặp máy tính nào sau đây liên thông với  nhau?</t>
-  </si>
-  <si>
     <t>a) 192.168.1.3   và  192.168.1.1.8</t>
   </si>
   <si>
@@ -148,9 +94,6 @@
     <t>d) 171.25.11.1  và  172.26.11.2</t>
   </si>
   <si>
-    <t>Câu 70: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.224.0, cặp máy tính nào sau đây liên thông với  nhau?</t>
-  </si>
-  <si>
     <t>a) 192.167.100.2    và  192.168.100.1</t>
   </si>
   <si>
@@ -160,10 +103,10 @@
     <t>d) 172.25.11.1   và  172.25.211.2</t>
   </si>
   <si>
-    <t>Câu 71: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.240.0.0,  cặp máy tính nào sau đây liên thông với  nhau?</t>
-  </si>
-  <si>
-    <t>Câu 72: Trong mạng máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.255.224 hãy xác định địa chỉ broadcast của mạng nếu biết rằng một máy tính trong mạng có địa chỉ 192.168.1.1</t>
+    <t>c)192.240.100.15  và 192.250.100.16</t>
+  </si>
+  <si>
+    <t>d)172.25.11.1  và  172.26.11.2</t>
   </si>
   <si>
     <t>a)  192.168.1.0</t>
@@ -172,9 +115,6 @@
     <t>b)  192.168.1.30</t>
   </si>
   <si>
-    <t>câu 73: Trong mạng máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.252.0,  hãy  xác định địa chỉ broadcast của mạng nếu biết rằng một máy tính trong mạng có địa chỉ 192.168.30.1</t>
-  </si>
-  <si>
     <t>a)  10.20.17.255</t>
   </si>
   <si>
@@ -193,12 +133,18 @@
     <t>c)   190.44.255.255</t>
   </si>
   <si>
+    <t xml:space="preserve">b) 221.218.253.255 </t>
+  </si>
+  <si>
     <t xml:space="preserve">c)   200.44.22.25 </t>
   </si>
   <si>
     <t xml:space="preserve">c)   190.44.255.255 </t>
   </si>
   <si>
+    <t>b)191.168.15.1 và   192.168.15.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">c) 192.168.255.255 </t>
   </si>
   <si>
@@ -622,21 +568,9 @@
     <t>b)     Router sẽ trả lời với địa chỉ MAC của  Z.</t>
   </si>
   <si>
-    <t>Câu 75: Frame Relay hỗ trợ cơ chế nào  sau?</t>
-  </si>
-  <si>
-    <t>Câu 76 Địa chỉ 200.255.254.255 là địa chỉ  gì?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu 77: Địa chỉ IP nào sau đây là hợp lệ? </t>
-  </si>
-  <si>
     <t>a)  92.0.0.0</t>
   </si>
   <si>
-    <t>Câu 78: Địa chỉ IP nào sau đây là hợp lệ?</t>
-  </si>
-  <si>
     <t>d)  200.192.168.0</t>
   </si>
   <si>
@@ -646,12 +580,6 @@
     <t>b)  211.39.87.100</t>
   </si>
   <si>
-    <t>Câu 81: Hiện nay, vì sao nhiều máy tính không trực tiếp kết nối trực tiếp với Internet (có địa    chỉ IP chính danh Internet) mà phải nhờ một hệ thống máy tính đại   diện?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu 82: Địa chỉ IP cùng với subnet mask nào không thể sử dụng để đặt cấu hình cho một trạm? </t>
-  </si>
-  <si>
     <t>a) *IP 10.10.10.255, Subnet Mask:  255.255.255.0</t>
   </si>
   <si>
@@ -664,9 +592,6 @@
     <t>d) IP 10.10.252.254, Subnet Mask:  255.255.252.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 83: Địa chỉ IP cùng với subnet mask nào có thể sử dụng để đặt cấu hình cho một trạm? </t>
-  </si>
-  <si>
     <t>b) IP 200.100.10.255, Subnet Mask:  255.255.255.0</t>
   </si>
   <si>
@@ -676,9 +601,6 @@
     <t>d) Câu a và c đúng</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 84: Địa chỉ IP cùng với subnet mask nào không thể sử dụng để đặt cấu hình cho một trạm? </t>
-  </si>
-  <si>
     <t>a) IP 13.13.255.255, Subnet Mask:  255.255.255.0</t>
   </si>
   <si>
@@ -688,15 +610,9 @@
     <t>c) IP 213.213.255.0, Subnet Mask:  255.255.255.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 85: Hãy chọn địa chỉ không nằm cùng mạng với các địa chỉ còn lại? </t>
-  </si>
-  <si>
     <t>a)   203.29.100.100/255.255.255.240</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 85: Giá trị nào là Subnetask mặc định cho lớp A? </t>
-  </si>
-  <si>
     <t>a)  255.0.0.255</t>
   </si>
   <si>
@@ -706,54 +622,15 @@
     <t>d)  255.255.255.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 86: Giá trị nào là Subnetmask mặc định cho lớp C? </t>
-  </si>
-  <si>
     <t>255.0.255.255 d) *255.255.255.o</t>
   </si>
   <si>
-    <t>Câu  87: Mỗi mạng thuộc lớp A có thể thiết lập bao nhiêu địa chỉ IP của máy trạm ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu 88: Có bao nhiêu địa chỉ mạng thuộc lớp A? </t>
-  </si>
-  <si>
-    <t>Câu 89: Có bao nhiêu địa chỉ mạng thuộc lớp B?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu 90: Có bao nhiêu địa chỉ mạng thuộc lớp C? </t>
-  </si>
-  <si>
-    <t>Câu 91: Bộ phần mềm giao thức TCP/IP được tích hợp vào phần mềm nào sau   đây?</t>
-  </si>
-  <si>
-    <t>Câu 92: Kích thước của địa chỉ IPv4 gồm bao nhiêu  bit?</t>
-  </si>
-  <si>
-    <t>Câu 95.*Hãy tính giá trị serial number của  một card mạng có địa chỉ 03:65:FF:32:A6:73 và   biểu diễn giá trị này dưới dạng  Hexa?</t>
-  </si>
-  <si>
-    <t>Câu 96:Thiết bị nào sau đây sử dụng địa chỉ  MAC?</t>
-  </si>
-  <si>
     <t>b) 0365</t>
   </si>
   <si>
     <t xml:space="preserve">c) FF32.A673 </t>
   </si>
   <si>
-    <t>Câu 97:  Ý nghĩa của địa chỉ MAC là gì?</t>
-  </si>
-  <si>
-    <t>Câu 98: Địa chỉ MAC bao gồm các thông tin  nào?</t>
-  </si>
-  <si>
-    <t>Câu 100: Thiết bị nào sau không cần thiết để sử dụng trong mạng cục  bộ?</t>
-  </si>
-  <si>
-    <t>Câu 99: Ai có chức năng thiết cài đặt chỉ MAC cho các thiết  bị?</t>
-  </si>
-  <si>
     <t>d) 32A673*</t>
   </si>
   <si>
@@ -784,6 +661,9 @@
     <t>a)  224-23</t>
   </si>
   <si>
+    <t>d)255.255.003</t>
+  </si>
+  <si>
     <t>c) 255.0.0.632 *</t>
   </si>
   <si>
@@ -814,9 +694,6 @@
     <t>a) IP 10.10.10.224, Subnet Mask:  255.255.255.250</t>
   </si>
   <si>
-    <t>Câu 80: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp B?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> a)  127.26.36.85</t>
   </si>
   <si>
@@ -832,15 +709,15 @@
     <t>d)  68.168.255.255*</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu 79: Địa chỉ IP nào sau đây là hợp lệ? </t>
-  </si>
-  <si>
     <t>c)  142.68.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">a)   142.168.255.255 </t>
   </si>
   <si>
+    <t>b) 255.255.255.254 *</t>
+  </si>
+  <si>
     <t>d)  200.100.255.255</t>
   </si>
   <si>
@@ -850,9 +727,6 @@
     <t>c) 100.100.255.255 *</t>
   </si>
   <si>
-    <t>Câu 74:  Máy tính A và   Z có địa chỉ trên 2 mạng con(Subnet Mask) Khác nhau. Điều gì xảy   ra khi máy tính A gửi broadcasts (ARP request) đi tìm địa chỉ MAC của máy tính   Z?</t>
-  </si>
-  <si>
     <t>c)     Router sẽ trả lời với địa chỉ MAC của  mình *</t>
   </si>
   <si>
@@ -973,9 +847,6 @@
     <t>d)GAN *</t>
   </si>
   <si>
-    <t>b)MAN</t>
-  </si>
-  <si>
     <t>a) LAN *</t>
   </si>
   <si>
@@ -1150,6 +1021,9 @@
     <t>b)  224-2</t>
   </si>
   <si>
+    <t>c) 221-2 *</t>
+  </si>
+  <si>
     <t>a)     Trình điều khiển (Driver) cho Card  mạng</t>
   </si>
   <si>
@@ -1160,6 +1034,357 @@
   </si>
   <si>
     <t>d)    Câu b và c đúng *</t>
+  </si>
+  <si>
+    <t>a)     Xác định giao thức tầng dưới mà nó giao  tiếp</t>
+  </si>
+  <si>
+    <t>b)     Xác định giao thức tầng trên mà nó giao  tiếp</t>
+  </si>
+  <si>
+    <t>c)     Mô tả mã của của giao thức IP</t>
+  </si>
+  <si>
+    <t>d)    Định danh cho gói số liệu IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)  Không thể tính được </t>
+  </si>
+  <si>
+    <t>a)     Hub</t>
+  </si>
+  <si>
+    <t>b)     Repeater</t>
+  </si>
+  <si>
+    <t>c)     Bridge*</t>
+  </si>
+  <si>
+    <t>d)    Modem</t>
+  </si>
+  <si>
+    <t>a)     Định danh một máy tính trên mạng</t>
+  </si>
+  <si>
+    <t>b)      Định danh cho một thiết bị trên  mạng*</t>
+  </si>
+  <si>
+    <t>c)     Định danh cho một ứng dụng trên  mạng</t>
+  </si>
+  <si>
+    <t>d)    Định danh cho một mạng</t>
+  </si>
+  <si>
+    <t>a)      Nhà sản xuất và mã định danh thiết  bị *</t>
+  </si>
+  <si>
+    <t>b)     Mã thiết bị</t>
+  </si>
+  <si>
+    <t>c)     Mã thiết bị và năm sản xuất</t>
+  </si>
+  <si>
+    <t>d)    Năm sản xuất và nhà sản xuất</t>
+  </si>
+  <si>
+    <t>a)     Người dùng mạng</t>
+  </si>
+  <si>
+    <t>b)     Người quản trị mạng</t>
+  </si>
+  <si>
+    <t>c)     Nhà sản xuất thiết bị *</t>
+  </si>
+  <si>
+    <t>d)    Bất cứ người nào</t>
+  </si>
+  <si>
+    <t>b)     Bridge</t>
+  </si>
+  <si>
+    <t>c)     Switch</t>
+  </si>
+  <si>
+    <t>d)    Router *</t>
+  </si>
+  <si>
+    <t>Câu 36 Khi sử dụng mạng máy tính ta sẽ được các lợi  ích:</t>
+  </si>
+  <si>
+    <t>Câu 37 Kiến trúc mạng máy tính là:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d)  Cả ba câu trên đều sai. </t>
+  </si>
+  <si>
+    <t>Câu 1 Nguyên nhân cơ bản nào dẫn đến sự  ra đời của mạng máy  tính:</t>
+  </si>
+  <si>
+    <t>Câu 2 Ý nghĩa cơ bản nhất của mạng máy tính là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 3 Thuật ngữ viết tắt bằng tiếng Anh của mạng cục bộ là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 4 Thuật ngữ viết tắt bằng tiếng Anh của mạng diện rộng là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 5 Thuật ngữ viết tắt bằng tiếng Anh của mạng thành phố là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 6 Thuật ngữ viết tắt bằng tiếng Anh của mạng toàn cục là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 7 Thuật ngữ LAN (mạng cục bộ) là viết tắt của cụm từ  nào:</t>
+  </si>
+  <si>
+    <t>Câu 8 Thuật ngữ WAN (mạng diện rộng) là viết tắt của cụm từ  nào:</t>
+  </si>
+  <si>
+    <t>Câu 9 Thuật ngữ MAN (mạng thành phố) là viết tắt của cụm từ  nào:</t>
+  </si>
+  <si>
+    <t>Câu 10 Thuật ngữ GAN (mạng cục bộ) là viết tắt của cụm từ  nào:</t>
+  </si>
+  <si>
+    <t>Câu 11 Các kiểu mạng LAN, MAN, WAN, GAN được phân biệt với nhau bởi tiêu chí phân loại nào:</t>
+  </si>
+  <si>
+    <t>Câu 12 Mục đích chính của việc xây dựng LAN là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 13 Mục đích chính của việc xây dựng WAN là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 14 Mục đích chính của việc xây dựng MAN là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 15 Mục đích chính của việc xây dựng GAN là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 16 Mạng Internet là mạng thuộc loại mạng  nào:</t>
+  </si>
+  <si>
+    <t>Câu 17 Mạng máy tính EpuNet của Trường Đại học Điện lực thuộc loại mạng   nào:</t>
+  </si>
+  <si>
+    <t>Câu 18 Hai máy tính có thể kết nối trực tp với nhau để trao đổi thông tin, mạng kết nối 2 máy tính đó thuộc loại mạng nào:</t>
+  </si>
+  <si>
+    <t>Câu 19 Các tài nguyên nào có thể dùng chung được nhờ có mạng máy   tính:</t>
+  </si>
+  <si>
+    <t>Câu 20 Người ta có thể điều khiển hoạt động của một máy tính từ xa thông qua công cụ nào sau đây:</t>
+  </si>
+  <si>
+    <t>Câu 21 Sau khi đã khỏa sát và thiết kế một mạng máy tính, bước tiếp theo để thiết lập một mạng máy tính, người ta cần phải thực hiện các công việc  gì:</t>
+  </si>
+  <si>
+    <t>Câu 22 Tại sao cần phải xây dựng hệ thống an ninh mạng máy  tính:</t>
+  </si>
+  <si>
+    <t>Câu 23 Các thành phần tạo nên mạng máy tính là  gì:</t>
+  </si>
+  <si>
+    <t>Câu 24 Nguyên nhân nào gây ra việc hai máy tính (kết nối vật lý đã thông) trong mạng  không thể trao đổi thông tin với  nhau:</t>
+  </si>
+  <si>
+    <t>Câu 25 Một số vấn đề cơ bản khi mở rộng kết nối  mạng:</t>
+  </si>
+  <si>
+    <t>Câu 26 Tại sao vấn đề an ninh mạng máy tính lại được quan tâm và phát triển hiện   nay:</t>
+  </si>
+  <si>
+    <t>Câu 27 Ứng dụng nào sau hỗ trợ chức năng cập nhật phiên bản mới qua mạng:</t>
+  </si>
+  <si>
+    <t>Câu 28 Hệ điều hành Windows2000 tích hợp các ứng dụng mạng nào sau   đây:</t>
+  </si>
+  <si>
+    <t>Câu 29 Ứng dụng nào sau có hỗ trợ chức năng truyền thông  mạng:</t>
+  </si>
+  <si>
+    <t>Câu 30 Ứng dụng nào sau không hỗ trợ chức năng truyền thông   mạng:</t>
+  </si>
+  <si>
+    <t>Câu 31 Ứng dụng nào sau có hỗ trợ chức năng truyền thông  mạng:</t>
+  </si>
+  <si>
+    <t>Câu 32 Ứng dụng nào sau không hỗ trợ chức năng truyền thông   mạng:</t>
+  </si>
+  <si>
+    <t>Câu 33 Tổ chức nào sau đây cung cấp dịch vụ truyền thông   Internet:</t>
+  </si>
+  <si>
+    <t>Câu 34 Ứng dụng mạng nào sau đây cho phép gọi điện qua   Internet:</t>
+  </si>
+  <si>
+    <t>Câu 35 Ứng dụng mạng nào sau đây cho phép truyền hình ảnh trực tiếp qua   Internet:</t>
+  </si>
+  <si>
+    <t>Câu 38 Tầng nào trong mô hình OSI thực hiện gửi tín hiệu lên  cáp:</t>
+  </si>
+  <si>
+    <t>Câu 39 Địa chỉ mạng được gán tại tầng nào trong mô hình OSI  :</t>
+  </si>
+  <si>
+    <t>Câu 40 Mô hình OSI được chia ra thành mấy  tầng:</t>
+  </si>
+  <si>
+    <t>Câu 41 Mô hình OSI là một bộ định chuẩn của tổ chức  nào:</t>
+  </si>
+  <si>
+    <t>Câu 42 Mô hình OSI được nghiên cứu bắt đầu từ năm  nào:</t>
+  </si>
+  <si>
+    <t>Câu 43 Chức năng nén dữ liệu trước khi gửi được thực hiện bởi tầng chức năng nào trong   mô hình OSI:</t>
+  </si>
+  <si>
+    <t>Câu 44 Chức năng chuyển đổi cú pháp cho dữ liệu truyền thông được thực hiện bởi tầng  chức năng nào:</t>
+  </si>
+  <si>
+    <t>Câu 45 Chức năng xác lập địa chỉ cổng dịch vụ cho các gói dữ liệu truyền thông được thực hiện bởi tầng chức năng nào:</t>
+  </si>
+  <si>
+    <t>Câu 46 Chức năng đánh số thứ tự cho gói dữ liệu truyền  thông được thực  hiện bởi tầng  chức năng nào:</t>
+  </si>
+  <si>
+    <t>Câu 47 Chức năng xác lập cơ chế truy nhập  đường truyền được thực hiện bởi tầng chức  năng nào:</t>
+  </si>
+  <si>
+    <t>Câu 48 Chức năng xác lập chuẩn đầu nối, dây cáp, tốc độ truyền, điện áp,… được thực hiện bởi tầng chức năng nào:</t>
+  </si>
+  <si>
+    <t>Câu 49 Những quy định nào sau đây không phải là của ISO dành cho việc xây dựng mô    hình OSI:</t>
+  </si>
+  <si>
+    <t>Câu 50 Ý nghĩa của dữ liệu không được gán cho các tầng nào sau   đây:</t>
+  </si>
+  <si>
+    <t>Câu 51 Các gói dữ liệu truyền thông giữa hai trạm theo mô hình OSI được truyền thông    theo phương thức chuyển mạng gì:</t>
+  </si>
+  <si>
+    <t>Câu 52 Tầng nào trong mô hình OSI thực hiện chia nhỏ các gói tin nhận được từ tầng phiên trước khi gửi đi:</t>
+  </si>
+  <si>
+    <t>Câu 53 Chức năng định tuyến các gói tin xẩy ra ở tầng  nào trong mô hình   OSI:</t>
+  </si>
+  <si>
+    <t>Câu 54: Khi gói tin bị mất hoặc bị lỗi thì tầng liên kết dữ liệu sẽ làm  gì:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Câu 55: Thông thường, tầng liên kết dữ liệu sử dụng kỹ thuật nào để điều khiển tốc độ gửi và  tốc độ nhận:</t>
+  </si>
+  <si>
+    <t>Câu 56: Định nghĩa địa chỉ IP được thực hiện tại tầng nào trong các tầng   sau:</t>
+  </si>
+  <si>
+    <t>Câu 57: Việc đánh số thứ tự cho các gói tin của tầng giao vận có ý nghĩa  gì:</t>
+  </si>
+  <si>
+    <t>Câu 57: Địa chỉ IP nào dưới đây nằm trong mạng có địa chỉ mạng là 192.168.100.0 và Subnet Mask là 255.255.255.0 :</t>
+  </si>
+  <si>
+    <t>câu 58: Địa chỉ IP nào dưới đây nằm trong mạng có địa chỉ mạng là 10.16.0.0 và có Subnet Mask là 255.240.0.0 :</t>
+  </si>
+  <si>
+    <t>câu 59: Địa chỉ IP nào dưới đây nằm trong mạng có địa chỉ mạng là 192.168.128.0 và Subnet Mask là 255.255.192.0 :</t>
+  </si>
+  <si>
+    <t>câu 60: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp C:</t>
+  </si>
+  <si>
+    <t>Câu 61: Địa chỉ IP nào dưới đây thuộc lớp C có thể thiết lập cho máy tính:</t>
+  </si>
+  <si>
+    <t>Câu 62: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp A có thể thiết lập cho máy tính:</t>
+  </si>
+  <si>
+    <t>Câu 63: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp A:</t>
+  </si>
+  <si>
+    <t>Câu 64: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp B:</t>
+  </si>
+  <si>
+    <t>Câu 65: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp B có thể thiết lập cho máy tính:</t>
+  </si>
+  <si>
+    <t>Câu 66: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp D có thể thiết lập cho máy tính:</t>
+  </si>
+  <si>
+    <t>Câu 67: Số lượng bit nhiều nhất có thể mượn để chia subnets của địa chỉ IP lớp C là bao   nhiêu:</t>
+  </si>
+  <si>
+    <t>Câu 68: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.255.0, cặp máy tính nào sau đây liên thông với  nhau:</t>
+  </si>
+  <si>
+    <t>Câu 69: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.255.252, cặp máy tính nào sau đây liên thông với  nhau:</t>
+  </si>
+  <si>
+    <t>Câu 70: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.224.0, cặp máy tính nào sau đây liên thông với  nhau:</t>
+  </si>
+  <si>
+    <t>Câu 71: Trong mạng có các máy tính dùng giao thức TCP/IP và Subnet Mask là 255.240.0.0,  cặp máy tính nào sau đây liên thông với  nhau:</t>
+  </si>
+  <si>
+    <t>Câu 72: Trong mạng máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.255.224 hãy xác định địa chỉ broadcast của mạng nếu biết rằng một máy tính trong mạng có địa chỉ :192.168.1.1:</t>
+  </si>
+  <si>
+    <t>câu 73: Trong mạng máy tính dùng giao thức TCP/IP và Subnet Mask là 255.255.252.0,  hãy  xác định địa chỉ broadcast của mạng nếu biết rằng một máy tính trong mạng có địa chỉ 192.168.30.1:</t>
+  </si>
+  <si>
+    <t>Câu 74:  Máy tính A và   Z có địa chỉ trên 2 mạng con(Subnet Mask) Khác nhau. Điều gì xảy   ra khi máy tính A gửi broadcasts (ARP request) đi tìm địa chỉ MAC của máy tính   Z:</t>
+  </si>
+  <si>
+    <t>Câu 75: Frame Relay hỗ trợ cơ chế nào  sau:</t>
+  </si>
+  <si>
+    <t>Câu 76 Địa chỉ 200.255.254.255 là địa chỉ  gì:</t>
+  </si>
+  <si>
+    <t>Câu 77: Địa chỉ IP nào sau đây là hợp lệ:</t>
+  </si>
+  <si>
+    <t>Câu 78: Địa chỉ IP nào sau đây là hợp lệ:</t>
+  </si>
+  <si>
+    <t>Câu 79: Địa chỉ IP nào sau đây là hợp lệ:</t>
+  </si>
+  <si>
+    <t>Câu 80: Địa chỉ IP nào dưới đây thuộc địa chỉ lớp B:</t>
+  </si>
+  <si>
+    <t>Câu 81: Hiện nay, vì sao nhiều máy tính không trực tiếp kết nối trực tiếp với Internet (có địa    chỉ IP chính danh Internet) mà phải nhờ một hệ thống máy tính đại   diện:</t>
+  </si>
+  <si>
+    <t>Câu 82: Địa chỉ IP cùng với subnet mask nào không thể sử dụng để đặt cấu hình cho một trạm:</t>
+  </si>
+  <si>
+    <t>Câu 83: Địa chỉ IP cùng với subnet mask nào có thể sử dụng để đặt cấu hình cho một trạm:</t>
+  </si>
+  <si>
+    <t>Câu 84: Địa chỉ IP cùng với subnet mask nào không thể sử dụng để đặt cấu hình cho một trạm:</t>
+  </si>
+  <si>
+    <t>Câu 85: Hãy chọn địa chỉ không nằm cùng mạng với các địa chỉ còn lại:</t>
+  </si>
+  <si>
+    <t>Câu 100: Thiết bị nào sau không cần thiết để sử dụng trong mạng cục  bộ:</t>
+  </si>
+  <si>
+    <t>Câu 99: Ai có chức năng thiết cài đặt chỉ MAC cho các thiết  bị:</t>
+  </si>
+  <si>
+    <t>Câu 98: Địa chỉ MAC bao gồm các thông tin  nào:</t>
+  </si>
+  <si>
+    <t>Câu 97:  Ý nghĩa của địa chỉ MAC là gì:</t>
+  </si>
+  <si>
+    <t>Câu 96:Thiết bị nào sau đây sử dụng địa chỉ  MAC:</t>
+  </si>
+  <si>
+    <t>Câu 95.*Hãy tính giá trị serial number của  một card mạng có địa chỉ 03:65:FF:32:A6:73 và   biểu diễn giá trị này dưới dạng  Hexa:</t>
   </si>
   <si>
     <r>
@@ -1182,269 +1407,47 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>trong cấu trúc gói số liệu IP dùng để làm   gì?</t>
+      <t>trong cấu trúc gói số liệu IP dùng để làm   gì:</t>
     </r>
   </si>
   <si>
-    <t>b)     Xác định giao thức tầng trên mà nó giao  tiếp</t>
-  </si>
-  <si>
-    <t>c)     Mô tả mã của của giao thức IP</t>
-  </si>
-  <si>
-    <t>d)    Định danh cho gói số liệu IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a)  Không thể tính được </t>
-  </si>
-  <si>
-    <t>a)     Hub</t>
-  </si>
-  <si>
-    <t>b)     Repeater</t>
-  </si>
-  <si>
-    <t>c)     Bridge*</t>
-  </si>
-  <si>
-    <t>d)    Modem</t>
-  </si>
-  <si>
-    <t>a)     Định danh một máy tính trên mạng</t>
-  </si>
-  <si>
-    <t>b)      Định danh cho một thiết bị trên  mạng*</t>
-  </si>
-  <si>
-    <t>c)     Định danh cho một ứng dụng trên  mạng</t>
-  </si>
-  <si>
-    <t>d)    Định danh cho một mạng</t>
-  </si>
-  <si>
-    <t>a)      Nhà sản xuất và mã định danh thiết  bị *</t>
-  </si>
-  <si>
-    <t>b)     Mã thiết bị</t>
-  </si>
-  <si>
-    <t>c)     Mã thiết bị và năm sản xuất</t>
-  </si>
-  <si>
-    <t>d)    Năm sản xuất và nhà sản xuất</t>
-  </si>
-  <si>
-    <t>a)     Người dùng mạng</t>
-  </si>
-  <si>
-    <t>b)     Người quản trị mạng</t>
-  </si>
-  <si>
-    <t>c)     Nhà sản xuất thiết bị *</t>
-  </si>
-  <si>
-    <t>d)    Bất cứ người nào</t>
-  </si>
-  <si>
-    <t>b)     Bridge</t>
-  </si>
-  <si>
-    <t>c)     Switch</t>
-  </si>
-  <si>
-    <t>d)    Router *</t>
-  </si>
-  <si>
-    <t>Câu 1 Nguyên nhân cơ bản nào dẫn đến sự  ra đời của mạng máy  tính</t>
-  </si>
-  <si>
-    <t>Câu 2 Ý nghĩa cơ bản nhất của mạng máy tính là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 3 Thuật ngữ viết tắt bằng tiếng Anh của mạng cục bộ là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 4 Thuật ngữ viết tắt bằng tiếng Anh của mạng diện rộng là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 5 Thuật ngữ viết tắt bằng tiếng Anh của mạng thành phố là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 6 Thuật ngữ viết tắt bằng tiếng Anh của mạng toàn cục là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 7 Thuật ngữ LAN (mạng cục bộ) là viết tắt của cụm từ  nào?</t>
-  </si>
-  <si>
-    <t>Câu 8 Thuật ngữ WAN (mạng diện rộng) là viết tắt của cụm từ  nào?</t>
-  </si>
-  <si>
-    <t>Câu 9 Thuật ngữ MAN (mạng thành phố) là viết tắt của cụm từ  nào?</t>
-  </si>
-  <si>
-    <t>Câu 10 Thuật ngữ GAN (mạng cục bộ) là viết tắt của cụm từ  nào?</t>
-  </si>
-  <si>
-    <t>Câu 11 Các kiểu mạng LAN, MAN, WAN, GAN được phân biệt với nhau bởi tiêu chí phân loại nào?</t>
-  </si>
-  <si>
-    <t>Câu 12 Mục đích chính của việc xây dựng LAN là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 13 Mục đích chính của việc xây dựng WAN là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 14 Mục đích chính của việc xây dựng MAN là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 15 Mục đích chính của việc xây dựng GAN là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 16 Mạng Internet là mạng thuộc loại mạng  nào?</t>
-  </si>
-  <si>
-    <t>Câu 17 Mạng máy tính EpuNet của Trường Đại học Điện lực thuộc loại mạng   nào?</t>
-  </si>
-  <si>
-    <t>Câu 18 Hai máy tính có thể kết nối trực tp với nhau để trao đổi thông tin, mạng kết nối 2 máy tính đó thuộc loại mạng nào?</t>
-  </si>
-  <si>
-    <t>Câu 19 Các tài nguyên nào có thể dùng chung được nhờ có mạng máy   tính?</t>
-  </si>
-  <si>
-    <t>Câu 20 Người ta có thể điều khiển hoạt động của một máy tính từ xa thông qua công cụ nào sau đây?</t>
-  </si>
-  <si>
-    <t>Câu 21 Sau khi đã khỏa sát và thiết kế một mạng máy tính, bước tiếp theo để thiết lập một mạng máy tính, người ta cần phải thực hiện các công việc  gì?</t>
-  </si>
-  <si>
-    <t>Câu 22 Tại sao cần phải xây dựng hệ thống an ninh mạng máy  tính?</t>
-  </si>
-  <si>
-    <t>Câu 23 Các thành phần tạo nên mạng máy tính là  gì?</t>
-  </si>
-  <si>
-    <t>Câu 24 Nguyên nhân nào gây ra việc hai máy tính (kết nối vật lý đã thông) trong mạng  không thể trao đổi thông tin với  nhau?</t>
-  </si>
-  <si>
-    <t>Câu 25 Một số vấn đề cơ bản khi mở rộng kết nối  mạng?</t>
-  </si>
-  <si>
-    <t>Câu 26 Tại sao vấn đề an ninh mạng máy tính lại được quan tâm và phát triển hiện   nay?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu 27 Ứng dụng nào sau hỗ trợ chức năng cập nhật phiên bản mới qua mạng? </t>
-  </si>
-  <si>
-    <t>Câu 28 Hệ điều hành Windows2000 tích hợp các ứng dụng mạng nào sau   đây?</t>
-  </si>
-  <si>
-    <t>Câu 29 Ứng dụng nào sau có hỗ trợ chức năng truyền thông  mạng?</t>
-  </si>
-  <si>
-    <t>Câu 30 Ứng dụng nào sau không hỗ trợ chức năng truyền thông   mạng?</t>
-  </si>
-  <si>
-    <t>Câu 31 Ứng dụng nào sau có hỗ trợ chức năng truyền thông  mạng?</t>
-  </si>
-  <si>
-    <t>Câu 32 Ứng dụng nào sau không hỗ trợ chức năng truyền thông   mạng?</t>
-  </si>
-  <si>
-    <t>Câu 33 Tổ chức nào sau đây cung cấp dịch vụ truyền thông   Internet?</t>
-  </si>
-  <si>
-    <t>Câu 34 Ứng dụng mạng nào sau đây cho phép gọi điện qua   Internet?</t>
-  </si>
-  <si>
-    <t>Câu 35 Ứng dụng mạng nào sau đây cho phép truyền hình ảnh trực tiếp qua   Internet?</t>
-  </si>
-  <si>
-    <t>Câu 36 Khi sử dụng mạng máy tính ta sẽ được các lợi  ích:</t>
-  </si>
-  <si>
-    <t>Câu 37 Kiến trúc mạng máy tính là:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d)  Cả ba câu trên đều sai. </t>
-  </si>
-  <si>
-    <t>Câu 38 Tầng nào trong mô hình OSI thực hiện gửi tín hiệu lên  cáp?</t>
-  </si>
-  <si>
-    <t>Câu 39 Địa chỉ mạng được gán tại tầng nào trong mô hình OSI  ?</t>
-  </si>
-  <si>
-    <t>Câu 40 Mô hình OSI được chia ra thành mấy  tầng?</t>
-  </si>
-  <si>
-    <t>Câu 41 Mô hình OSI là một bộ định chuẩn của tổ chức  nào?</t>
-  </si>
-  <si>
-    <t>Câu 42 Mô hình OSI được nghiên cứu bắt đầu từ năm  nào?</t>
-  </si>
-  <si>
-    <t>Câu 43 Chức năng nén dữ liệu trước khi gửi được thực hiện bởi tầng chức năng nào trong   mô hình OSI?</t>
-  </si>
-  <si>
-    <t>Câu 44 Chức năng chuyển đổi cú pháp cho dữ liệu truyền thông được thực hiện bởi tầng  chức năng nào?</t>
-  </si>
-  <si>
-    <t>Câu 45 Chức năng xác lập địa chỉ cổng dịch vụ cho các gói dữ liệu truyền thông được thực hiện bởi tầng chức năng nào?</t>
-  </si>
-  <si>
-    <t>Câu 46 Chức năng đánh số thứ tự cho gói dữ liệu truyền  thông được thực  hiện bởi tầng  chức năng nào</t>
-  </si>
-  <si>
-    <t>Câu 47 Chức năng xác lập cơ chế truy nhập  đường truyền được thực hiện bởi tầng chức  năng nào</t>
-  </si>
-  <si>
-    <t>Câu 48 Chức năng xác lập chuẩn đầu nối, dây cáp, tốc độ truyền, điện áp,… được thực hiện bởi tầng chức năng nào</t>
-  </si>
-  <si>
-    <t>Câu 49 Những quy định nào sau đây không phải là của ISO dành cho việc xây dựng mô    hình OSI</t>
-  </si>
-  <si>
-    <t>Câu 50 Ý nghĩa của dữ liệu không được gán cho các tầng nào sau   đây?</t>
-  </si>
-  <si>
-    <t>Câu 51 Các gói dữ liệu truyền thông giữa hai trạm theo mô hình OSI được truyền thông    theo phương thức chuyển mạng gì?</t>
-  </si>
-  <si>
-    <t>Câu 52 Tầng nào trong mô hình OSI thực hiện chia nhỏ các gói tin nhận được từ tầng phiên trước khi gửi đi?</t>
-  </si>
-  <si>
-    <t>Câu 53 Chức năng định tuyến các gói tin xẩy ra ở tầng  nào trong mô hình   OSI</t>
-  </si>
-  <si>
-    <t>a)     Xác định giao thức tầng dưới mà nó giao  tiếp*</t>
-  </si>
-  <si>
-    <t>b) 191.168.15.1 và   192.168.15.2</t>
-  </si>
-  <si>
-    <t>c) 192.240.100.15  và 192.250.100.16</t>
-  </si>
-  <si>
-    <t>d) 172.25.11.1  và  172.26.11.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b)  221.218.253.255 </t>
+    <t>Câu 92: Kích thước của địa chỉ IPv4 gồm bao nhiêu  bit:</t>
+  </si>
+  <si>
+    <t>Câu 91: Bộ phần mềm giao thức TCP/IP được tích hợp vào phần mềm nào sau   đây:</t>
+  </si>
+  <si>
+    <t>Câu 90: Có bao nhiêu địa chỉ mạng thuộc lớp C:</t>
+  </si>
+  <si>
+    <t>Câu 89: Có bao nhiêu địa chỉ mạng thuộc lớp B:</t>
+  </si>
+  <si>
+    <t>Câu 88: Có bao nhiêu địa chỉ mạng thuộc lớp A:</t>
+  </si>
+  <si>
+    <t>Câu  87: Mỗi mạng thuộc lớp A có thể thiết lập bao nhiêu địa chỉ IP của máy trạm :</t>
+  </si>
+  <si>
+    <t>Câu 86: Giá trị nào là Subnetmask mặc định cho lớp C:</t>
+  </si>
+  <si>
+    <t>Câu 85: Giá trị nào là Subnetask mặc định cho lớp A:</t>
+  </si>
+  <si>
+    <t>b) MAN</t>
+  </si>
+  <si>
+    <t>c) WAN</t>
+  </si>
+  <si>
+    <t>d) GAn</t>
   </si>
   <si>
     <t>a) Internet Explore</t>
   </si>
   <si>
     <t>b) BkavPro</t>
-  </si>
-  <si>
-    <t>b)  255.255.255.254 *</t>
-  </si>
-  <si>
-    <t>d) 255.255.003</t>
-  </si>
-  <si>
-    <t>c)  221-2 *</t>
   </si>
 </sst>
 </file>
@@ -2072,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2084,392 +2087,392 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,2150 +2482,2150 @@
     </row>
     <row r="80" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>317</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>439</v>
+        <v>362</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>440</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>441</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>4</v>
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>8</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>15</v>
+        <v>422</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>18</v>
+        <v>423</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>21</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>462</v>
+        <v>37</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>22</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>25</v>
+        <v>426</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>26</v>
+        <v>427</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>29</v>
+        <v>428</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>31</v>
+        <v>429</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>34</v>
+        <v>431</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>42</v>
+        <v>433</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>46</v>
+        <v>434</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>459</v>
+        <v>40</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>460</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>461</v>
+        <v>28</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>47</v>
+        <v>435</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>50</v>
+        <v>436</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>276</v>
+        <v>437</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>465</v>
+        <v>231</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>270</v>
+        <v>442</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>264</v>
+        <v>443</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>208</v>
+        <v>444</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>209</v>
+        <v>445</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>214</v>
+        <v>446</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>218</v>
+        <v>447</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>222</v>
+        <v>448</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>224</v>
+        <v>463</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>228</v>
+        <v>462</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>466</v>
+        <v>213</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>230</v>
+        <v>461</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>231</v>
+        <v>460</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>232</v>
+        <v>459</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>233</v>
+        <v>458</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>467</v>
+        <v>333</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>234</v>
+        <v>457</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>235</v>
+        <v>456</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>380</v>
+        <v>455</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>236</v>
+        <v>454</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>237</v>
+        <v>453</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>240</v>
+        <v>452</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>241</v>
+        <v>451</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>243</v>
+        <v>450</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
